--- a/biology/Botanique/Coussinet_foliaire/Coussinet_foliaire.xlsx
+++ b/biology/Botanique/Coussinet_foliaire/Coussinet_foliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, le coussinet foliaire, appelé aussi bourrelet de pétiole ou pulvinus[1], est un bourrelet saillant aux articulations de la tige à la base du pétiole (pulvinus primaire), du pétiole avec les pétiolules de la penne (pulvinus secondaire) ou de la pinnule (pulvinus tertiaire), voire à la base du pédoncule de la fleur. Il est composé d'un cœur de tissus vasculaires entourés d'un cylindre de cellules parenchymateuses à la paroi cellulaire relativement fine. Ces cellules motrices, en subissant des changements rapides de turgescence, sont à l'origine du mouvement de repli des feuilles ou folioles répondant à l'alternance du jour et de la nuit (nyctinastie) ou à une stimulation tactile (thigmonastie)[2].
-Cette structure en forme de bulbe se rencontre essentiellement chez les plantes à feuilles composées (Fabaceae, Oxalidaceae)[2].
-Au niveau de ces pulvini, la similitude de la réaction des cellules motrices « avec la transmission de l'influx nerveux chez les animaux a conduit à émettre l'hypothèse selon laquelle les plantes sont, elles aussi, capables de transmettre des stimuli sous la forme d'un potentiel d'action[3] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, le coussinet foliaire, appelé aussi bourrelet de pétiole ou pulvinus, est un bourrelet saillant aux articulations de la tige à la base du pétiole (pulvinus primaire), du pétiole avec les pétiolules de la penne (pulvinus secondaire) ou de la pinnule (pulvinus tertiaire), voire à la base du pédoncule de la fleur. Il est composé d'un cœur de tissus vasculaires entourés d'un cylindre de cellules parenchymateuses à la paroi cellulaire relativement fine. Ces cellules motrices, en subissant des changements rapides de turgescence, sont à l'origine du mouvement de repli des feuilles ou folioles répondant à l'alternance du jour et de la nuit (nyctinastie) ou à une stimulation tactile (thigmonastie).
+Cette structure en forme de bulbe se rencontre essentiellement chez les plantes à feuilles composées (Fabaceae, Oxalidaceae).
+Au niveau de ces pulvini, la similitude de la réaction des cellules motrices « avec la transmission de l'influx nerveux chez les animaux a conduit à émettre l'hypothèse selon laquelle les plantes sont, elles aussi, capables de transmettre des stimuli sous la forme d'un potentiel d'action ».
 </t>
         </is>
       </c>
